--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -198,7 +198,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,6 +371,24 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.7058</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.9031</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -437,6 +455,24 @@
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D19" s="1" t="n">
+        <v>0.8983</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.7264</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.8994</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.6873</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -502,6 +538,24 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.7535</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0.8984</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0.7402</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -197,8 +197,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,6 +622,24 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.9004</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.6717</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0.9009</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0.7082</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t xml:space="preserve">CV</t>
   </si>
@@ -76,6 +76,21 @@
   <si>
     <t xml:space="preserve">
 MLSTM_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+2</t>
   </si>
 </sst>
 </file>
@@ -157,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +190,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,15 +216,15 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.94"/>
@@ -396,6 +415,24 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9051</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.9058</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.7798</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -480,6 +517,24 @@
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D20" s="1" t="n">
+        <v>0.9037</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.7526</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.9038</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.7374</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
@@ -564,6 +619,24 @@
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D28" s="4" t="n">
+        <v>0.9027</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0.7521</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
@@ -647,6 +720,24 @@
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.7604</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.9026</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0.7563</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -217,7 +217,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t xml:space="preserve">CV</t>
   </si>
@@ -91,6 +91,16 @@
   </si>
   <si>
     <t xml:space="preserve">6+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BIDAF_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10+2</t>
   </si>
 </sst>
 </file>
@@ -214,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,8 +798,178 @@
         <v>11</v>
       </c>
     </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.9004</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.6717</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0.9009</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0.7082</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0.7604</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0.9026</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>0.7563</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.8995</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.7129</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0.9014</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>0.7465</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.9002</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.7063</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>0.9008</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0.7181</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.8995</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.7575</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>0.8994</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>0.7549</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3"/>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -820,6 +1000,12 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -227,7 +227,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+      <selection pane="topLeft" activeCell="K44" activeCellId="0" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
